--- a/public/Ventas_0_2010.xlsx
+++ b/public/Ventas_0_2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="Ventas 0 - 03" r:id="rId4"/>
+    <sheet sheetId="1" name="Ventas 0 - 05" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -80,14 +80,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="14.85"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="69.30000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="67.10000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -105,468 +105,696 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>000023</t>
+          <t>000004</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA HERMANAS CEN, S.A</t>
+          <t>INVERSIONES 4J&amp;CH, C.A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>000027</t>
+          <t>000008</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>LICORERIA PARAGUANA C.A</t>
+          <t>SUPERMERCADO ADICORA S.R.L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>000022</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>CARACAS CENTER LICORES, C.A.</t>
+          <t>CARNICERIA FALCON P.N.2015,C.A.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>000088</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA RODYMAR, C.A.</t>
+          <t>HIELOS CARIBE, C.A.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>000163</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>FARMACIA ORION 2010,  C.A.</t>
+          <t>MARINA LICOR SHOP, C.A.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>000246</t>
+          <t>000074</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>EL BODEGON DE JOSEPH, C.A.</t>
+          <t>ASOCIACIÓN COOPERATIVA MIS HIJAS, R.L.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>000318</t>
+          <t>000079</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>CHAM FOOD C.A</t>
+          <t>MARY TORTAS, C.A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>000325</t>
+          <t>000090</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>INTERPAN 2006, C.A</t>
+          <t>MINI MARKET MI LINDO PUEBLO NUEVO, C.A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>000329</t>
+          <t>000126</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SUPER MERCADO SUPER LIDER C.A</t>
+          <t>DON PEDRO SUPERMARKET, C.A.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>000332</t>
+          <t>000174</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA GRAN CITY, C.A.</t>
+          <t>LICORERIA PAPA GEDE, C.A.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>000341</t>
+          <t>000198</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>COMERCIAL YE ZENG, C.A</t>
+          <t>SUPERMERCADO BELLA ADICORA, C.A.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>000366</t>
+          <t>000310</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>COMERCIAL MUNDO WEN C.A</t>
+          <t>INVERSIONES CAYAFFA FIESTA, F.P</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>000387</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SOLO LICORES, C.A.</t>
+          <t>LA MANSION DE LA CAPINA, C.A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>000395</t>
+          <t>000331</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>VIVERES PARAGUANA MAYOR Y DETAL, C.A</t>
+          <t>LACALDECA, S.A.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>000414</t>
+          <t>000342</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>ALBA IMPORT, C.A.</t>
+          <t>ASOC. COOP. EL PAN DE CASA 856 RL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>000361</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>BODEGON PA Q' ANTONIO, C.A</t>
+          <t>AROMAS BODEGON, C.A.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>000442</t>
+          <t>000408</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>INVERSIONES DOBLE PREMIO, C.A.</t>
+          <t>INVERSIONES DON DIEGO 2018, C.A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>000451</t>
+          <t>000413</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>FERRETERÍA Y QUINCALLERÍA CASA WU, C.A.</t>
+          <t>INVERSIONES MI PEQUEÑA ESTEFANY I, C.A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>000452</t>
+          <t>000415</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>TITUS,C.A.</t>
+          <t>LICORERIA EL TINAJON F.P</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>000474</t>
+          <t>000417</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>ATI IMPORT, C.A.</t>
+          <t>RESTAURANT Y MULTISERVICIOS LA INSUPERABLE, C.A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>000503</t>
+          <t>000425</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA LOS 2 RODRIGUEZ, C.A.</t>
+          <t>INVERSIONES CRUZ &amp; OJEDA ASOCIADOS, C.A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>000515</t>
+          <t>000434</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>MUNIRA IMPORT, C.A.</t>
+          <t>TAKO, C.A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>000533</t>
+          <t>000439</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>MINI MARKET VIVAS, C.A.</t>
+          <t>PANADERIA,PASTELERIA Y CHARCUTERIA SANTA CLARA , F.P</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>000546</t>
+          <t>000445</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>INVERSIONES ANYU, C.A.</t>
+          <t>EL NUEVO ABASTO BUENA VISTA, C.A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>000560</t>
+          <t>000450</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>FOOD MEAT DISTRIBUIDORA, C.A.</t>
+          <t>"COMERCIAL LA PERFECTA VOLUNTAD DE DIOS, COMPAÑIA ANONIMA"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>000565</t>
+          <t>000453</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>INVERSIONES JMD PARAGUANÁ, C.A.</t>
+          <t>LA CHORIZONA, C.A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>000636</t>
+          <t>000454</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>VIVERES Y HORTALIZAS RIVEMAR, C.A.</t>
+          <t>COMERCIALIZADORA EL IRÉ DE TU NEGOCIO , C.A.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>000462</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>MUNDO ASSAF, C.A.</t>
+          <t>INVERSIONES DIEGO.COM, C.A.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>000655</t>
+          <t>000486</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>EXCLUSIVIDADES HENRY, C.A.</t>
+          <t>DONI´S, C.A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>000734</t>
+          <t>000489</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA TORO REY, C.A</t>
+          <t>FERRETERÍA LA ARMADURA DE DIOS DE PUEBLO NUEVO, C.A.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>000789</t>
+          <t>000499</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>MINI MUNDO SATGURU, C.A</t>
+          <t>HERMANOS BARAL, C.A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>000501</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>MUNDO MAC, C.A</t>
+          <t>INVERSIONES EL CERRO DE PARAGUANA C.A.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>VIVERES NUEVA GENESIS, C.A.</t>
+          <t>INVERSIONES COSTOS DEL TEMPORADISTA, C.A.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>001069</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>DISTRIBUIDORA HERMANOS ETERNOS 2019, C.A.</t>
+          <t>SOSIRI C.A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>001084</t>
+          <t>000540</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>EURO DIGITAL, C.A.</t>
+          <t>INVERSIONES M Y P 2015, C.A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SURTI PENINSULA, C.A.</t>
+          <t>PA' QUE JORGE 2016, C.A.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>001122</t>
+          <t>000561</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>COMERCIALIZADORA EXITO CHINA, C.A.</t>
+          <t>INVERSIONES NET SPEED, C.A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>000568</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>PANADERIA, PASTELERIA Y CHARCUTERIA LA ORQUIDEA ANDINA, C.A.</t>
+          <t>INVERSIONES MAGDI C.A.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>001277</t>
+          <t>000569</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>COMERCIAL YEN SAN C.A.</t>
+          <t>SUPERMERCADO Y BODEGON LOS ANTONIOS C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>000718</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>PANADERIA LA CAPINA, F.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>000719</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>PANADERIA LA MERIDEÑA, F.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>ESTACION DE SERVICIOS LAS DELICIAS DE MORUY, F.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>VARIEDADES, ESTAMPADOS Y VIVERES LIZ, F.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>000783</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>INVERSIONES ESTRELLA TAQUENSE, F.P</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>000798</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>MARIA PAOLA ROBLES LUGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>ABASTO FRALUZVA F.P.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>ABASTOS Y CARNICERIA 2 DE ENERO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>CORPORACION EL CUÑAO, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>001089</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>MARIO ANTONIO PADILLA URBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>001114</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>LICORERIA Y AGENCIA DE FESTEJOS RAMIREZ, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>COMERCIAL SAN MIGUEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA LOS DAMIETOS, C.A,</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>INVERSIONES GEVM PARAGUANA, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>001288</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>EL CASTILLO DE LA CLARIDAD AGRO-INDUSTRIAL, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>INVERSIONES I.A.M.G, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>INVERSIONES BRACMED, F.P</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>BAMBU LU, C.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>INVERSIONES BRENSER, C.A.</t>
         </is>
       </c>
     </row>
